--- a/course_resource/contents.xlsx
+++ b/course_resource/contents.xlsx
@@ -911,7 +911,7 @@
   <dimension ref="A1:A302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
